--- a/raw_data/VCEA_goals.xlsx
+++ b/raw_data/VCEA_goals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pyung\Documents\GitHub\postgres-etl\raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wms5f/Programming/va_clean_economy_dashboard/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7F0128-7C23-4C3C-B226-C2A014022DF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41862A1B-9B94-FE49-997E-5EC7EDA76B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{2BE932FA-E61C-4F47-B3CF-1F177F70D416}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28560" windowHeight="17500" xr2:uid="{2BE932FA-E61C-4F47-B3CF-1F177F70D416}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -408,24 +408,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2204A34C-DF71-FD48-B1BE-2A1EE1E43562}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="39.5" customWidth="1"/>
-    <col min="5" max="5" width="50.5" customWidth="1"/>
-    <col min="6" max="6" width="22.75" customWidth="1"/>
-    <col min="7" max="7" width="29.25" customWidth="1"/>
-    <col min="8" max="8" width="45.6484375" customWidth="1"/>
-    <col min="9" max="9" width="54" customWidth="1"/>
-    <col min="11" max="11" width="28.84765625" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="8" max="8" width="45.6640625" customWidth="1"/>
+    <col min="9" max="9" width="49.5" customWidth="1"/>
+    <col min="11" max="11" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2021</v>
       </c>
@@ -471,7 +471,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2022</v>
       </c>
@@ -492,7 +492,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2023</v>
       </c>
@@ -515,7 +515,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2024</v>
       </c>
@@ -538,7 +538,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2025</v>
       </c>
@@ -559,7 +559,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2026</v>
       </c>
@@ -576,7 +576,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2027</v>
       </c>
@@ -597,7 +597,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2028</v>
       </c>
@@ -614,7 +614,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2029</v>
       </c>
@@ -631,7 +631,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2030</v>
       </c>
@@ -652,7 +652,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2031</v>
       </c>
@@ -669,7 +669,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2032</v>
       </c>
@@ -686,7 +686,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2033</v>
       </c>
@@ -703,7 +703,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2034</v>
       </c>
@@ -720,7 +720,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2035</v>
       </c>
@@ -743,7 +743,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2036</v>
       </c>
@@ -760,7 +760,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2037</v>
       </c>
@@ -777,7 +777,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2038</v>
       </c>
@@ -794,7 +794,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>2039</v>
       </c>
@@ -811,7 +811,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2040</v>
       </c>
@@ -828,7 +828,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>2041</v>
       </c>
@@ -845,7 +845,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>2042</v>
       </c>
@@ -862,7 +862,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2043</v>
       </c>
@@ -879,7 +879,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>2044</v>
       </c>
@@ -896,7 +896,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>2045</v>
       </c>
@@ -913,7 +913,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>2046</v>
       </c>
@@ -930,7 +930,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>2047</v>
       </c>
@@ -947,7 +947,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>2048</v>
       </c>
@@ -964,7 +964,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>2049</v>
       </c>
@@ -981,7 +981,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>2050</v>
       </c>
